--- a/data/trans_dic/P07B_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.06405593283330153</v>
+        <v>0.06405593283330152</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.08585497838553931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07528797611978864</v>
+        <v>0.07528797611978867</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04740128615129206</v>
+        <v>0.04897835445237175</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0722085504624891</v>
+        <v>0.07241853621596081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06384738955901388</v>
+        <v>0.06439366497035576</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08570444207366476</v>
+        <v>0.08726271760859138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1019139561569703</v>
+        <v>0.1024975768829346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08888481874053168</v>
+        <v>0.08841560089870895</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03292751394733881</v>
+        <v>0.03330124439767648</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07708935739003078</v>
+        <v>0.07822615414199363</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05931776552939542</v>
+        <v>0.05894732282498685</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06008309830426346</v>
+        <v>0.05902673280116254</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.106252360473892</v>
+        <v>0.1055627618764117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07836122404896197</v>
+        <v>0.07797801278225586</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04910875240119893</v>
+        <v>0.04814047097748383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07435891846846836</v>
+        <v>0.07339906652562421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06529319513283469</v>
+        <v>0.065572534060579</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09083257445369879</v>
+        <v>0.08713298793190559</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1125620371986048</v>
+        <v>0.109395353190096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09395651238239877</v>
+        <v>0.0944770481345957</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.07758256622232282</v>
+        <v>0.0775825662223228</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1131811568211061</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06208691203041646</v>
+        <v>0.06053330726967614</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09717488221518587</v>
+        <v>0.09733810444381084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08483333228050409</v>
+        <v>0.08461948333726967</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0955585711102265</v>
+        <v>0.09678821234644086</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.129893642657336</v>
+        <v>0.1302404459569973</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.109432768742093</v>
+        <v>0.1099689321403562</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.06228152526108632</v>
+        <v>0.06228152526108634</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.09656436482978181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07990295609708961</v>
+        <v>0.07990295609708963</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05448332150784829</v>
+        <v>0.05405775258462145</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08754640684408047</v>
+        <v>0.08842296391510542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07399861662615206</v>
+        <v>0.0740401140173286</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07228175861979326</v>
+        <v>0.07194301683148618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1043834565918146</v>
+        <v>0.1045755493710412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0859326066867061</v>
+        <v>0.08552808635343949</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32741</v>
+        <v>33830</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53014</v>
+        <v>53168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90975</v>
+        <v>91754</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59197</v>
+        <v>60273</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>74823</v>
+        <v>75252</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126651</v>
+        <v>125982</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34538</v>
+        <v>34930</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82550</v>
+        <v>83768</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>125739</v>
+        <v>124954</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63022</v>
+        <v>61914</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>113779</v>
+        <v>113041</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>166107</v>
+        <v>165294</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39438</v>
+        <v>38660</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60399</v>
+        <v>59619</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>105470</v>
+        <v>105921</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>72945</v>
+        <v>69974</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>91430</v>
+        <v>88857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151771</v>
+        <v>152612</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61470</v>
+        <v>59932</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>108743</v>
+        <v>108925</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>178922</v>
+        <v>178471</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94609</v>
+        <v>95826</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>145356</v>
+        <v>145744</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>230805</v>
+        <v>231936</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>192477</v>
+        <v>190973</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>327101</v>
+        <v>330376</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>537902</v>
+        <v>538204</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>255354</v>
+        <v>254158</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>390010</v>
+        <v>390728</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>624651</v>
+        <v>621711</v>
       </c>
     </row>
     <row r="24">
